--- a/quadros_trabalho.xlsx
+++ b/quadros_trabalho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigosantos/Documents/GitHub/weak_signals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A3C310-1EC7-CE41-BD1B-FD91C2354741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E08E566-A91A-E147-8F5E-D6BE0AF51FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{26259010-7F4B-8F41-9F45-6803DAE93237}"/>
+    <workbookView xWindow="-4980" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{26259010-7F4B-8F41-9F45-6803DAE93237}"/>
   </bookViews>
   <sheets>
     <sheet name="referencias_cluster_met_cient" sheetId="2" r:id="rId1"/>
@@ -2211,7 +2211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2239,6 +2239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,7 +2350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2361,18 +2367,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2382,23 +2394,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2409,15 +2421,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2426,6 +2432,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2743,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D371962-A7BD-D145-B65F-21FC41B120AC}">
   <dimension ref="B2:C25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2954,15 +2963,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6CB812-1192-CB48-8FE3-A2223BFE23F5}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C26"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="50.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" style="6" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -2978,7 +2987,7 @@
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2986,13 +2995,13 @@
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="2:3" ht="22" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3000,25 +3009,25 @@
       <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="2:3" ht="22" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="2:3" ht="22" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="2:3" ht="22" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
@@ -3029,106 +3038,106 @@
       </c>
     </row>
     <row r="11" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3157,16 +3166,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="2:3" ht="22" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3174,7 +3183,7 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3182,21 +3191,21 @@
       <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="2:3" ht="149" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3224,11 +3233,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="2:4" ht="22" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -3242,35 +3251,35 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="22" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="22" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="22" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3299,24 +3308,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="22" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3324,37 +3333,37 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="22" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="2:5" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3372,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E956C94F-651C-9B46-8C58-68771907D67B}">
   <dimension ref="B2:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="M11" sqref="B2:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3413,168 +3422,168 @@
     </row>
     <row r="3" spans="2:14" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="22"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="23"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="23"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="25"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="25"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/quadros_trabalho.xlsx
+++ b/quadros_trabalho.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigosantos/Documents/GitHub/weak_signals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E08E566-A91A-E147-8F5E-D6BE0AF51FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27143784-E25E-4C40-949F-D5D112813B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{26259010-7F4B-8F41-9F45-6803DAE93237}"/>
+    <workbookView xWindow="-4980" yWindow="-17540" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{26259010-7F4B-8F41-9F45-6803DAE93237}"/>
   </bookViews>
   <sheets>
     <sheet name="referencias_cluster_met_cient" sheetId="2" r:id="rId1"/>
     <sheet name="referencias_autores_lev_bib" sheetId="3" r:id="rId2"/>
-    <sheet name="doc_necessidade" sheetId="4" r:id="rId3"/>
-    <sheet name="lista_funcionalidade" sheetId="5" r:id="rId4"/>
-    <sheet name="doc_funcionalidade" sheetId="6" r:id="rId5"/>
-    <sheet name="Cronograma" sheetId="7" r:id="rId6"/>
+    <sheet name="geracoes_ews" sheetId="8" r:id="rId3"/>
+    <sheet name="doc_necessidade" sheetId="4" r:id="rId4"/>
+    <sheet name="lista_funcionalidade" sheetId="5" r:id="rId5"/>
+    <sheet name="doc_funcionalidade" sheetId="6" r:id="rId6"/>
+    <sheet name="Cronograma" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="122">
   <si>
     <t>Cluster</t>
   </si>
@@ -2150,6 +2151,60 @@
   </si>
   <si>
     <t>JUN</t>
+  </si>
+  <si>
+    <t>1960 - 1980</t>
+  </si>
+  <si>
+    <t>1990 em diante</t>
+  </si>
+  <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Aspecto dominante</t>
+  </si>
+  <si>
+    <t>Tipo de informação</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Dentro da organização</t>
+  </si>
+  <si>
+    <t>Quantitativo</t>
+  </si>
+  <si>
+    <t>Indicadores chave de performance de planejamento e controle</t>
+  </si>
+  <si>
+    <t>Organização e ambiente mais próximo</t>
+  </si>
+  <si>
+    <t>Organização e ambiente em geral (próximo e extenso)</t>
+  </si>
+  <si>
+    <t>Quantitativo e qualitativo</t>
+  </si>
+  <si>
+    <t>Indicadores de avisos antecipativos</t>
+  </si>
+  <si>
+    <t>Sinais antecipativos, radar estratégico</t>
+  </si>
+  <si>
+    <t>Busca e avaliação de informação na operação negocial</t>
+  </si>
+  <si>
+    <t>Busca e avaliação de informação estratégica relevante</t>
+  </si>
+  <si>
+    <t>Detecção de desvios do planejamento e excessos de limitações</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2245,6 +2300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2350,7 +2411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2385,6 +2446,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2433,8 +2497,17 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2963,8 +3036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6CB812-1192-CB48-8FE3-A2223BFE23F5}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B26"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -2987,7 +3060,7 @@
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2995,13 +3068,13 @@
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="2:3" ht="22" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3009,25 +3082,25 @@
       <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="2:3" ht="22" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="2:3" ht="22" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="2:3" ht="22" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
@@ -3038,106 +3111,106 @@
       </c>
     </row>
     <row r="11" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="2:3" ht="22" x14ac:dyDescent="0.2">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3152,6 +3225,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F658A7FC-C7E9-FC4B-A1D1-F50337852BAB}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="48.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="34" customWidth="1"/>
+    <col min="3" max="5" width="39.33203125" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="48.1640625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="35">
+        <v>1960</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="44" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="44" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CCCDA1-6882-DD47-B0DE-49157646AF6D}">
   <dimension ref="B2:C7"/>
   <sheetViews>
@@ -3166,10 +3330,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="2:3" ht="22" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -3196,16 +3360,16 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="2:3" ht="149" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3217,7 +3381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FD80EB-4FC4-9942-A637-4F97D3F5139C}">
   <dimension ref="B2:D6"/>
   <sheetViews>
@@ -3233,11 +3397,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="2:4" ht="22" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -3291,7 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B157496-2060-0E4D-AD9F-56CCAD7D5B92}">
   <dimension ref="B2:E7"/>
   <sheetViews>
@@ -3308,12 +3472,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="22" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -3333,37 +3497,37 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" ht="22" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="2:5" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3377,7 +3541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E956C94F-651C-9B46-8C58-68771907D67B}">
   <dimension ref="B2:N11"/>
   <sheetViews>
@@ -3401,27 +3565,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="30">
         <v>2019</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30">
         <v>2020</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="15" t="s">
         <v>93</v>
       </c>
